--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -30,10 +30,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>karbontest@yopmail.com</t>
-  </si>
-  <si>
-    <t>qwertyui</t>
+    <t>appium@yopmail.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
   </si>
   <si>
     <t>FirstName</t>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Verify App Launch screen displays Sign In button.</t>
@@ -308,17 +311,15 @@
   </si>
   <si>
     <t>Verify PB SOS with Video &amp; Location incident when app is in Background.</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -440,7 +441,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,15 +496,15 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="28.6173469387755" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.8061224489796" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.6887755102041" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +525,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="karbontest@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="appium@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -549,13 +550,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="12.6887755102041" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="14.0408163265306" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="34.4234693877551" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="12.4183673469388" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="12.5561224489796" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="13.5" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="33.6122448979592" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,15 +637,15 @@
   </sheetPr>
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="54.9438775510204" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="22.1377551020408" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="53.7244897959184" collapsed="true"/>
+    <col min="2" max="3" hidden="false" style="0" width="21.5969387755102" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,34 +667,34 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>94</v>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -702,18 +703,18 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -722,7 +723,7 @@
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>20</v>
@@ -731,7 +732,7 @@
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>20</v>
@@ -740,7 +741,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>20</v>
@@ -749,7 +750,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -758,14 +759,14 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
@@ -774,7 +775,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>20</v>
@@ -783,35 +784,35 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>20</v>
@@ -820,392 +821,392 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -688,7 +688,7 @@
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>appium@yopmail.com</t>
+    <t>android@yopmail.com</t>
   </si>
   <si>
     <t>12345678</t>
@@ -48,16 +48,16 @@
     <t>SafeWord</t>
   </si>
   <si>
-    <t>Kuvrr1</t>
-  </si>
-  <si>
-    <t>CK1</t>
-  </si>
-  <si>
-    <t>SF1</t>
-  </si>
-  <si>
-    <t>kuvrrProd9@yopmail.com</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>test@yopmail.com</t>
   </si>
   <si>
     <t>chandan</t>
@@ -428,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,6 +442,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,13 +501,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.8061224489796" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="12.6887755102041" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.4591836734694" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
     <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
@@ -525,7 +529,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="appium@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="android@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -545,17 +549,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="12.4183673469388" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="12.5561224489796" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="13.5" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="33.6122448979592" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="13.7704081632653" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="9.85204081632653" collapsed="true"/>
     <col min="7" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
@@ -579,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -592,7 +596,7 @@
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -600,19 +604,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>2147483647</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -620,6 +624,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="test@yopmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -643,27 +650,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="53.7244897959184" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="21.5969387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="51.2959183673469" collapsed="true"/>
+    <col min="2" max="3" hidden="false" style="0" width="20.3826530612245" collapsed="true"/>
     <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -671,10 +678,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
@@ -682,30 +689,30 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -713,503 +720,503 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="10"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="10"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="10"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="10"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="10"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="10"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="10"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="10"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -695,7 +695,7 @@
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>android@yopmail.com</t>
+    <t>ios05@yopmail.com</t>
   </si>
   <si>
     <t>12345678</t>
@@ -501,14 +501,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="26.4591836734694" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.0510204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,7 +528,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="android@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="ios05@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -554,13 +553,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="13.7704081632653" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="9.85204081632653" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="13.5" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="12.6887755102041" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="31.4540816326531" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="9.71938775510204" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,9 +649,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="51.2959183673469" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="20.3826530612245" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="50.6224489795918" collapsed="true"/>
+    <col min="2" max="3" hidden="false" style="0" width="20.1122448979592" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +694,7 @@
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
     </row>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ios05@yopmail.com</t>
+    <t>karint@yopmail.com</t>
   </si>
   <si>
     <t>12345678</t>
@@ -506,8 +506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="26.0510204081633" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.8775510204082" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +529,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ios05@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="karint@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -553,13 +554,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="13.5" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="12.6887755102041" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="31.4540816326531" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="9.71938775510204" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.9591836734694" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="12.2857142857143" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="30.2397959183673" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,9 +650,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="50.6224489795918" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="20.1122448979592" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="64.5255102040816" collapsed="true"/>
+    <col min="2" max="3" hidden="false" style="0" width="19.3061224489796" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>karint@yopmail.com</t>
+    <t>karbon@yopmail.com</t>
   </si>
   <si>
     <t>12345678</t>
@@ -506,9 +506,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.0714285714286" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.8367346938776" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,9 +527,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="karint@yopmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -554,13 +550,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="12.9591836734694" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="12.2857142857143" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="30.2397959183673" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="29.8316326530612" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="9.17857142857143" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,9 +646,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="64.5255102040816" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="19.3061224489796" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="63.8520408163265" collapsed="true"/>
+    <col min="2" max="3" hidden="false" style="0" width="19.0357142857143" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -72,22 +72,16 @@
     <t>chandan.kumar@netsutra.com</t>
   </si>
   <si>
-    <t>Manul Test Scenario</t>
-  </si>
-  <si>
-    <t>Automation Script</t>
+    <t>Sanity_Mobile_Scenarios</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Verify the Title of the Launch screen should be “Safety Kuvrr”.</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Issue Descriptions</t>
+  </si>
+  <si>
+    <t>Verify App Launch screen displays Text “Safety Kuvrr”.</t>
   </si>
   <si>
     <t>Verify App Launch screen displays Sign In button.</t>
@@ -96,10 +90,13 @@
     <t>Verify App Launch screen displays New Account button.</t>
   </si>
   <si>
+    <t>Verify user can click on Sign In button.</t>
+  </si>
+  <si>
     <t>Verify user can click on New Account button.</t>
   </si>
   <si>
-    <t>Verify Existing User can Log in Successfully.</t>
+    <t>Verify existing user can Sign In Successfully.</t>
   </si>
   <si>
     <t>Verify User can Sign up by creating New Account</t>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Verify PB SOS with Video &amp; Location incident when app is in Background.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -373,12 +373,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor rgb="FFCCFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -428,7 +440,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,27 +466,31 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -490,6 +506,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99FF33"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -500,14 +576,15 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="24.8367346938776" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.3010204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,13 +627,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="29.8316326530612" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="9.17857142857143" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.2602040816327" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.5561224489796" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="29.0255102040816" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="8.77551020408163" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,17 +714,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="63.8520408163265" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="19.0357142857143" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="62.3673469387755" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="22.9489795918367" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="26.1887755102041" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,561 +734,567 @@
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-    </row>
-    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11"/>
-    </row>
-    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11"/>
-    </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-    </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11"/>
-    </row>
-    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>Email</t>
   </si>
@@ -30,12 +30,24 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
     <t>karbon@yopmail.com</t>
   </si>
   <si>
     <t>12345678</t>
   </si>
   <si>
+    <t>8178041682</t>
+  </si>
+  <si>
+    <t>957480</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -96,7 +108,37 @@
     <t>Verify user can click on New Account button.</t>
   </si>
   <si>
-    <t>Verify existing user can Sign In Successfully.</t>
+    <t>Verify existing user can select Country Code during Sign.</t>
+  </si>
+  <si>
+    <t>Verify Select Country screen displays list of Country with respective country code.</t>
+  </si>
+  <si>
+    <t>Verify User can enter 10 digit Mobile number during SignIn</t>
+  </si>
+  <si>
+    <t>Verify Users receive OTP on given Mobile number and Email address when SignIn with Mobile Number.</t>
+  </si>
+  <si>
+    <t>Verify Resend Security Code with Mobile SignIn</t>
+  </si>
+  <si>
+    <t>Verify User can enter OTP under Verify security code screen.</t>
+  </si>
+  <si>
+    <t>Verify User can SignIn successfully after entering OTP under Verify security code screen.</t>
+  </si>
+  <si>
+    <t>Verify User can SignIn with Email address</t>
+  </si>
+  <si>
+    <t>Verify Users receive OTP on given Mobile number and Email address when SignIn with Email Address.</t>
+  </si>
+  <si>
+    <t>Verify Resend Security Code with Email SignIn.</t>
+  </si>
+  <si>
+    <t>Verify User can verify security code by entering OTP during SignIn.</t>
   </si>
   <si>
     <t>Verify User can Sign up by creating New Account</t>
@@ -123,7 +165,7 @@
     <t>Verify Password field accept minimum 8 characters</t>
   </si>
   <si>
-    <t>Verify User can Add my university under Add Organization screen</t>
+    <t>Verify User can Add Organization name or procode under add Organization screen</t>
   </si>
   <si>
     <t>Verify User can successfully add an Emergency Contact details.</t>
@@ -308,9 +350,6 @@
   </si>
   <si>
     <t>Verify PB SOS with Video &amp; Location incident when app is in Background.</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -457,6 +496,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,16 +516,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -574,17 +613,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="24.3010204081633" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,13 +635,25 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -622,74 +675,75 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="C:C F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="10.2602040816327" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="12.5561224489796" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="29.0255102040816" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="8.77551020408163" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4354545354</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>12345678</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="n">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>2147483647</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>12345678</v>
@@ -714,587 +768,588 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="62.3673469387755" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="22.9489795918367" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="26.1887755102041" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
+      <c r="A2" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
+      <c r="A3" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="8"/>
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="8"/>
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="8"/>
+      <c r="A21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="8"/>
+      <c r="A22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="A24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="8"/>
+      <c r="A27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="8"/>
+      <c r="A32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="8"/>
+      <c r="A43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="A47" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+    </row>
+    <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-    </row>
-    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+    </row>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+    </row>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+    </row>
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -138,7 +138,7 @@
     <t>Verify Resend Security Code with Email SignIn.</t>
   </si>
   <si>
-    <t>Verify User can verify security code by entering OTP during SignIn.</t>
+    <t>Verify User can verify security code by entering OTP during Email SignIn.</t>
   </si>
   <si>
     <t>Verify User can Sign up by creating New Account</t>
@@ -616,16 +616,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A17 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,18 +674,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="C:C F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A17 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,15 +770,15 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Verify PB SOS with Video &amp; Location incident when app is in Background.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -621,10 +624,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="19.9795918367347" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="26.8622448979592" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,13 +682,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.98979591836735" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="16.7397959183673" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="44.2755102040816" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="14.0408163265306" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,10 +778,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="52.9183673469388" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="19.0357142857143" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="21.734693877551" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,11 +799,17 @@
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -812,6 +821,9 @@
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,24 +847,36 @@
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,44 +931,63 @@
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
       <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
       <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,13 +1020,18 @@
       <c r="A32" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
       <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,7 +1102,9 @@
       <c r="A44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
       <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>
@@ -919,6 +919,9 @@
       <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="109">
   <si>
     <t>Email</t>
   </si>
@@ -815,6 +815,9 @@
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,6 +833,9 @@
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
@@ -841,6 +847,9 @@
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,6 +898,9 @@
       <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,12 +913,18 @@
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,6 +945,9 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="10"/>
     </row>
